--- a/medicine/Pharmacie/Symbicort/Symbicort.xlsx
+++ b/medicine/Pharmacie/Symbicort/Symbicort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le symbicort est un anti-asthmatique combinant 2 principes actifs (Budésonide et Formotérol) commercialisé sous deux formes pharmaceutiques (Turbuhaler et en aérosol présurisé par du HFA 227) par la société AstraZeneca. 
 La version aérosol est produite sur le site AstraZeneca de Dunkerque.
